--- a/templates/sellcontract/sellcontract.xlsx
+++ b/templates/sellcontract/sellcontract.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="109">
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,33 +355,6 @@
   </si>
   <si>
     <t>列表/单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>{{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>subitem_list/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>commodity_id.row</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>/name}}</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -549,33 +522,6 @@
   </si>
   <si>
     <r>
-      <t>{{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>subitem_list/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>commodity_id.row</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-      </rPr>
-      <t>/name}}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>{{buyer_company_id.row/</t>
     </r>
     <r>
@@ -612,6 +558,10 @@
       </rPr>
       <t>name}}</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{subitem_list/commodity_id.row/ename}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -984,57 +934,57 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,7 +1283,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="A14" sqref="A14:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1351,19 +1301,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
     </row>
     <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="6"/>
@@ -1396,26 +1346,26 @@
       <c r="I3" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="68"/>
+      <c r="K3" s="80"/>
     </row>
     <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="69" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
+      <c r="B4" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="6"/>
@@ -1445,12 +1395,12 @@
       <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
+      <c r="B7" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
       <c r="F7" s="8"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
@@ -1459,63 +1409,63 @@
     </row>
     <row r="8" spans="1:11" ht="9.75" customHeight="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
     </row>
     <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:11" ht="15">
       <c r="A11" s="41"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42"/>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="76" t="s">
+      <c r="F11" s="69"/>
+      <c r="G11" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="71" t="s">
+      <c r="H11" s="68"/>
+      <c r="I11" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="72"/>
+      <c r="J11" s="68"/>
       <c r="K11" s="28"/>
     </row>
     <row r="12" spans="1:11" ht="15">
@@ -1525,18 +1475,18 @@
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="45"/>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="74" t="s">
+      <c r="F12" s="69"/>
+      <c r="G12" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="80" t="s">
+      <c r="H12" s="71"/>
+      <c r="I12" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="81"/>
+      <c r="J12" s="77"/>
       <c r="K12" s="28"/>
     </row>
     <row r="13" spans="1:11" ht="15">
@@ -1544,171 +1494,171 @@
       <c r="B13" s="64"/>
       <c r="E13" s="50"/>
       <c r="F13" s="48"/>
-      <c r="G13" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
+      <c r="G13" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="14"/>
       <c r="K13" s="28"/>
     </row>
     <row r="14" spans="1:11" ht="15">
       <c r="A14" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="65" t="s">
+      <c r="F14" s="73"/>
+      <c r="G14" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="F14" s="66"/>
-      <c r="G14" s="56" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="51"/>
       <c r="I14" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="28"/>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="65" t="s">
+      <c r="F15" s="73"/>
+      <c r="G15" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="F15" s="66"/>
-      <c r="G15" s="56" t="s">
-        <v>86</v>
       </c>
       <c r="H15" s="51"/>
       <c r="I15" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J15" s="15"/>
       <c r="K15" s="28"/>
     </row>
     <row r="16" spans="1:11" ht="15">
       <c r="A16" s="10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="65" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="F16" s="66"/>
-      <c r="G16" s="56" t="s">
-        <v>86</v>
       </c>
       <c r="H16" s="51"/>
       <c r="I16" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="28"/>
     </row>
     <row r="17" spans="1:13" ht="15">
       <c r="A17" s="10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="65" t="s">
+      <c r="F17" s="73"/>
+      <c r="G17" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="F17" s="66"/>
-      <c r="G17" s="56" t="s">
-        <v>86</v>
       </c>
       <c r="H17" s="51"/>
       <c r="I17" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="28"/>
     </row>
     <row r="18" spans="1:13" ht="15">
       <c r="A18" s="10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="65" t="s">
+      <c r="F18" s="73"/>
+      <c r="G18" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="56" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:13" ht="15">
       <c r="A19" s="10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="65" t="s">
+      <c r="F19" s="73"/>
+      <c r="G19" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="F19" s="66"/>
-      <c r="G19" s="56" t="s">
-        <v>86</v>
       </c>
       <c r="H19" s="51"/>
       <c r="I19" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="28"/>
     </row>
     <row r="20" spans="1:13" ht="15">
       <c r="A20" s="10" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="65" t="s">
+      <c r="F20" s="73"/>
+      <c r="G20" s="56" t="s">
         <v>85</v>
-      </c>
-      <c r="F20" s="66"/>
-      <c r="G20" s="56" t="s">
-        <v>86</v>
       </c>
       <c r="H20" s="51"/>
       <c r="I20" s="52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="28"/>
@@ -1746,12 +1696,12 @@
       <c r="K22" s="28"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="30" t="s">
@@ -1761,7 +1711,7 @@
       <c r="G23" s="13"/>
       <c r="H23" s="31"/>
       <c r="I23" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J23" s="25"/>
     </row>
@@ -1810,10 +1760,10 @@
         <v>5</v>
       </c>
       <c r="B27" s="32"/>
-      <c r="C27" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="69"/>
+      <c r="C27" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="65"/>
       <c r="E27" s="29" t="s">
         <v>29</v>
       </c>
@@ -1821,7 +1771,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="39"/>
       <c r="I27" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="7.5" customHeight="1">
@@ -1943,17 +1893,24 @@
         <v>28</v>
       </c>
       <c r="B38" s="59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I38" s="59" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:J8"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="I11:J11"/>
@@ -1970,13 +1927,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0" top="0.98425196850393704" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -2097,10 +2047,10 @@
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -2108,7 +2058,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:3">
@@ -2116,7 +2066,7 @@
         <v>43</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:3">
@@ -2148,7 +2098,7 @@
         <v>47</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:3">
@@ -2156,7 +2106,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -2164,7 +2114,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="2:3">
@@ -2208,7 +2158,7 @@
         <v>79</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="2:3">
@@ -2216,7 +2166,7 @@
         <v>80</v>
       </c>
       <c r="C35" s="62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -2224,7 +2174,7 @@
         <v>81</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="2:3">
@@ -2232,15 +2182,15 @@
         <v>82</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
